--- a/acervo separado/Acervo_Acessorio_de_interiores.xlsx
+++ b/acervo separado/Acervo_Acessorio_de_interiores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66593C76-FC5C-4279-8EA8-184710504E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACA7EDB-75C8-4701-8781-985AB4E6DA21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,9 +605,6 @@
     <t>8,3 cm</t>
   </si>
   <si>
-    <t>6,5 xcm</t>
-  </si>
-  <si>
     <t>17,0 cm</t>
   </si>
   <si>
@@ -647,9 +644,6 @@
     <t>2,8 cm</t>
   </si>
   <si>
-    <t>6,4 xcm</t>
-  </si>
-  <si>
     <t>31,4 cm</t>
   </si>
   <si>
@@ -786,6 +780,12 @@
   </si>
   <si>
     <t>9,4 cm</t>
+  </si>
+  <si>
+    <t>6,5 cm</t>
+  </si>
+  <si>
+    <t>6,4 cm</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1424,7 @@
         <v>192</v>
       </c>
       <c r="Y3" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>12,0 cm</v>
       </c>
       <c r="X4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y4" t="s">
         <v>26</v>
@@ -1534,10 +1534,10 @@
         <v>264,0cm</v>
       </c>
       <c r="X5" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y5" t="s">
         <v>195</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1589,10 +1589,10 @@
         <v>182,0cm</v>
       </c>
       <c r="X6" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y6" t="s">
         <v>197</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1647,10 +1647,10 @@
         <v>63,0 cm</v>
       </c>
       <c r="X7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y7" t="s">
         <v>199</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1705,10 +1705,10 @@
         <v>84,5 cm</v>
       </c>
       <c r="X8" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y8" t="s">
         <v>201</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1760,10 +1760,10 @@
         <v>48,0 cm</v>
       </c>
       <c r="X9" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y9" t="s">
         <v>203</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1863,10 +1863,10 @@
         <v>2,7 ccm</v>
       </c>
       <c r="X11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1921,10 +1921,10 @@
         <v>183</v>
       </c>
       <c r="X12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y12" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1976,10 +1976,10 @@
         <v>15,5 cm</v>
       </c>
       <c r="X13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Y13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -2028,10 +2028,10 @@
         <v>10,3 cm</v>
       </c>
       <c r="X14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2080,10 +2080,10 @@
         <v>10,3 cm</v>
       </c>
       <c r="X15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2135,10 +2135,10 @@
         <v>18,4 cm</v>
       </c>
       <c r="X16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Y16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -2190,10 +2190,10 @@
         <v>26,5 cm</v>
       </c>
       <c r="X17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Y17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -2248,10 +2248,10 @@
         <v>2,3 ccm</v>
       </c>
       <c r="X18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Y18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -2306,10 +2306,10 @@
         <v>2,3 ccm</v>
       </c>
       <c r="X19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Y19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -2358,10 +2358,10 @@
         <v>6,0 ccm</v>
       </c>
       <c r="X20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -2410,10 +2410,10 @@
         <v>6,2 ccm</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -2462,10 +2462,10 @@
         <v>6,0 ccm</v>
       </c>
       <c r="X22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Y22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -2514,10 +2514,10 @@
         <v>5,8 ccm</v>
       </c>
       <c r="X23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Y23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -2569,7 +2569,7 @@
         <v>69</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2618,10 +2618,10 @@
         <v>8,7 ccm</v>
       </c>
       <c r="X25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -2670,10 +2670,10 @@
         <v>20,6 cm</v>
       </c>
       <c r="X26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Y26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -2722,10 +2722,10 @@
         <v>21,0 cm</v>
       </c>
       <c r="X27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Y27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -2774,10 +2774,10 @@
         <v>4,2 ccm</v>
       </c>
       <c r="X28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Y28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -2826,10 +2826,10 @@
         <v>4,2 ccm</v>
       </c>
       <c r="X29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Y29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -2881,10 +2881,10 @@
         <v>2,7 ccm</v>
       </c>
       <c r="X30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Y30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -2936,7 +2936,7 @@
         <v>96</v>
       </c>
       <c r="Y31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -2988,7 +2988,7 @@
         <v>96</v>
       </c>
       <c r="Y32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -3040,10 +3040,10 @@
         <v>2,6 ccm</v>
       </c>
       <c r="X33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Y33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -3095,10 +3095,10 @@
         <v>8,2 ccm</v>
       </c>
       <c r="X34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Y34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -3150,10 +3150,10 @@
         <v>4,1 ccm</v>
       </c>
       <c r="X35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Y35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -3205,10 +3205,10 @@
         <v>5,5 ccm</v>
       </c>
       <c r="X36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -3260,10 +3260,10 @@
         <v>9,4 ccm</v>
       </c>
       <c r="X37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -3315,10 +3315,10 @@
         <v>12,2 cm</v>
       </c>
       <c r="X38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Y38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -3373,10 +3373,10 @@
         <v>184</v>
       </c>
       <c r="X39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Y39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -3431,7 +3431,7 @@
         <v>137</v>
       </c>
       <c r="Y40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -3483,10 +3483,10 @@
         <v>7,5 ccm</v>
       </c>
       <c r="X41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Y41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -3541,7 +3541,7 @@
         <v>185</v>
       </c>
       <c r="X42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Y42" t="s">
         <v>96</v>
@@ -3599,10 +3599,10 @@
         <v>5,9 ccm</v>
       </c>
       <c r="X43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Y43" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -3660,10 +3660,10 @@
         <v>186</v>
       </c>
       <c r="X44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Y44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">

--- a/acervo separado/Acervo_Acessorio_de_interiores.xlsx
+++ b/acervo separado/Acervo_Acessorio_de_interiores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACA7EDB-75C8-4701-8781-985AB4E6DA21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DAEF5C-2E09-4E38-BF94-FC3424D8D310}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$S$46</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$S$46</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -101,24 +108,12 @@
     <t>S6 EST</t>
   </si>
   <si>
-    <t>Madeira</t>
-  </si>
-  <si>
     <t>12,0 cm</t>
   </si>
   <si>
-    <t>Moldagem/gesso</t>
-  </si>
-  <si>
-    <t>Bronze/madeira</t>
-  </si>
-  <si>
     <t>RT EST 3A</t>
   </si>
   <si>
-    <t>Talha/madeira</t>
-  </si>
-  <si>
     <t>RT ARM1</t>
   </si>
   <si>
@@ -137,15 +132,9 @@
     <t>Floreira</t>
   </si>
   <si>
-    <t>Faiança</t>
-  </si>
-  <si>
     <t>10,9 x 18,0 x 12,0 cm</t>
   </si>
   <si>
-    <t>Metal/madeira</t>
-  </si>
-  <si>
     <t>1434</t>
   </si>
   <si>
@@ -173,9 +162,6 @@
     <t>Colcha (fundo vermelho - contornada por galão dourado)</t>
   </si>
   <si>
-    <t>Seda e fio de ouro</t>
-  </si>
-  <si>
     <t>215,0 x 264,0 cm</t>
   </si>
   <si>
@@ -185,9 +171,6 @@
     <t>Rede (Ceará)</t>
   </si>
   <si>
-    <t>Algodão</t>
-  </si>
-  <si>
     <t>353,0 x 182,0 cm</t>
   </si>
   <si>
@@ -197,18 +180,12 @@
     <t>Estofo de cadeira</t>
   </si>
   <si>
-    <t>Tear jacar/fio de seda pura</t>
-  </si>
-  <si>
     <t>56,0 x 63,0 cm</t>
   </si>
   <si>
     <t>1508</t>
   </si>
   <si>
-    <t>Fio de seda pura/passamanaria</t>
-  </si>
-  <si>
     <t>65,0 x 84,5 cm</t>
   </si>
   <si>
@@ -218,9 +195,6 @@
     <t>Estofo de cadeira (cesta de flores)</t>
   </si>
   <si>
-    <t>Bordado/seda</t>
-  </si>
-  <si>
     <t>46,0 x 48,0 cm</t>
   </si>
   <si>
@@ -242,9 +216,6 @@
     <t>Jarro (miniatura - figura oriental)</t>
   </si>
   <si>
-    <t>Porcelana</t>
-  </si>
-  <si>
     <t>8,4 x 2,7 cm</t>
   </si>
   <si>
@@ -458,9 +429,6 @@
     <t>1525</t>
   </si>
   <si>
-    <t>Madeira/veludo</t>
-  </si>
-  <si>
     <t>3,4 x 9,4 cm</t>
   </si>
   <si>
@@ -503,9 +471,6 @@
     <t>21,3 x 8,0 x 10,8 cm</t>
   </si>
   <si>
-    <t>Pintura metálica policromada/cerâmica</t>
-  </si>
-  <si>
     <t>1424</t>
   </si>
   <si>
@@ -521,9 +486,6 @@
     <t>Moldura (estilo rococó)</t>
   </si>
   <si>
-    <t>Talha/madeira dourada pintada (escaiola)</t>
-  </si>
-  <si>
     <t>33,5 x 27,5 x 6,2 cm</t>
   </si>
   <si>
@@ -786,6 +748,51 @@
   </si>
   <si>
     <t>6,4 cm</t>
+  </si>
+  <si>
+    <t>mattec_103</t>
+  </si>
+  <si>
+    <t>mattec_193</t>
+  </si>
+  <si>
+    <t>mattec_42</t>
+  </si>
+  <si>
+    <t>mattec_275</t>
+  </si>
+  <si>
+    <t>mattec_18</t>
+  </si>
+  <si>
+    <t>mattec_291</t>
+  </si>
+  <si>
+    <t>mattec_106</t>
+  </si>
+  <si>
+    <t>mattec_29</t>
+  </si>
+  <si>
+    <t>mattec_252</t>
+  </si>
+  <si>
+    <t>mattec_154</t>
+  </si>
+  <si>
+    <t>mattec_285</t>
+  </si>
+  <si>
+    <t>mattec_175</t>
+  </si>
+  <si>
+    <t>mattec_243</t>
+  </si>
+  <si>
+    <t>mattec_286</t>
+  </si>
+  <si>
+    <t>mattec_197</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1245,10 +1252,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="J1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -1278,22 +1285,22 @@
         <v>15</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
@@ -1305,26 +1312,26 @@
         <v>1350</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
@@ -1332,7 +1339,7 @@
         <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -1352,14 +1359,14 @@
         <v>18,0 cm</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -1371,25 +1378,25 @@
         <v>1434</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -1398,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
         <v>18</v>
@@ -1418,13 +1425,13 @@
         <v>6,5 xcm</v>
       </c>
       <c r="V3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="X3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="Y3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1432,25 +1439,25 @@
         <v>1428</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -1459,7 +1466,7 @@
         <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
         <v>22</v>
@@ -1479,10 +1486,10 @@
         <v>12,0 cm</v>
       </c>
       <c r="X4" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Y4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1490,22 +1497,22 @@
         <v>1504</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -1514,7 +1521,7 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
         <v>18</v>
@@ -1534,10 +1541,10 @@
         <v>264,0cm</v>
       </c>
       <c r="X5" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="Y5" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1545,22 +1552,22 @@
         <v>1506</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -1569,7 +1576,7 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
         <v>18</v>
@@ -1589,10 +1596,10 @@
         <v>182,0cm</v>
       </c>
       <c r="X6" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="Y6" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1600,25 +1607,25 @@
         <v>1509</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -1627,7 +1634,7 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O7" t="s">
         <v>21</v>
@@ -1647,10 +1654,10 @@
         <v>63,0 cm</v>
       </c>
       <c r="X7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="Y7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1658,25 +1665,25 @@
         <v>1508</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -1685,7 +1692,7 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O8" t="s">
         <v>21</v>
@@ -1705,10 +1712,10 @@
         <v>84,5 cm</v>
       </c>
       <c r="X8" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="Y8" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1716,22 +1723,22 @@
         <v>1493</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -1740,7 +1747,7 @@
         <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O9" t="s">
         <v>21</v>
@@ -1760,10 +1767,10 @@
         <v>48,0 cm</v>
       </c>
       <c r="X9" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="Y9" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1771,22 +1778,22 @@
         <v>1506</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1795,7 +1802,7 @@
         <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O10" t="s">
         <v>18</v>
@@ -1807,11 +1814,11 @@
         <v>20</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="U10" s="2"/>
       <c r="X10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1819,22 +1826,22 @@
         <v>1296</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1863,10 +1870,10 @@
         <v>2,7 ccm</v>
       </c>
       <c r="X11" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="Y11" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1874,22 +1881,22 @@
         <v>1407</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1898,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O12" t="s">
         <v>18</v>
@@ -1918,13 +1925,13 @@
         <v>6,4 xcm</v>
       </c>
       <c r="V12" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="X12" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="Y12" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1932,22 +1939,22 @@
         <v>1343</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1976,10 +1983,10 @@
         <v>15,5 cm</v>
       </c>
       <c r="X13" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Y13" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1987,22 +1994,22 @@
         <v>1288</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -2017,7 +2024,7 @@
         <v>18</v>
       </c>
       <c r="Q14" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="T14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2028,10 +2035,10 @@
         <v>10,3 cm</v>
       </c>
       <c r="X14" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="Y14" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2039,22 +2046,22 @@
         <v>1288</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -2069,7 +2076,7 @@
         <v>18</v>
       </c>
       <c r="Q15" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="T15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2080,10 +2087,10 @@
         <v>10,3 cm</v>
       </c>
       <c r="X15" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="Y15" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2091,22 +2098,22 @@
         <v>2136</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -2135,10 +2142,10 @@
         <v>18,4 cm</v>
       </c>
       <c r="X16" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -2146,22 +2153,22 @@
         <v>2134</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -2190,10 +2197,10 @@
         <v>26,5 cm</v>
       </c>
       <c r="X17" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -2201,25 +2208,25 @@
         <v>1349</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="K18" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -2228,7 +2235,7 @@
         <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O18" t="s">
         <v>22</v>
@@ -2248,10 +2255,10 @@
         <v>2,3 ccm</v>
       </c>
       <c r="X18" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y18" t="s">
         <v>213</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -2259,25 +2266,25 @@
         <v>1349</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="K19" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -2286,7 +2293,7 @@
         <v>17</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O19" t="s">
         <v>18</v>
@@ -2306,10 +2313,10 @@
         <v>2,3 ccm</v>
       </c>
       <c r="X19" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y19" t="s">
         <v>213</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -2317,22 +2324,22 @@
         <v>1294</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -2347,7 +2354,7 @@
         <v>18</v>
       </c>
       <c r="Q20" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="T20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2358,10 +2365,10 @@
         <v>6,0 ccm</v>
       </c>
       <c r="X20" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -2369,22 +2376,22 @@
         <v>1293</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -2399,7 +2406,7 @@
         <v>22</v>
       </c>
       <c r="Q21" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="T21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2410,10 +2417,10 @@
         <v>6,2 ccm</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="Y21" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -2421,22 +2428,22 @@
         <v>1293</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -2451,7 +2458,7 @@
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="T22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2462,10 +2469,10 @@
         <v>6,0 ccm</v>
       </c>
       <c r="X22" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="Y22" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -2473,22 +2480,22 @@
         <v>1339</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -2503,7 +2510,7 @@
         <v>22</v>
       </c>
       <c r="Q23" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="T23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2514,10 +2521,10 @@
         <v>5,8 ccm</v>
       </c>
       <c r="X23" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="Y23" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -2525,22 +2532,22 @@
         <v>1295</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K24" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -2555,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="Q24" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="T24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2566,10 +2573,10 @@
         <v>7,5 ccm</v>
       </c>
       <c r="X24" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="Y24" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2577,22 +2584,22 @@
         <v>1292</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -2607,7 +2614,7 @@
         <v>18</v>
       </c>
       <c r="Q25" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="T25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2618,10 +2625,10 @@
         <v>8,7 ccm</v>
       </c>
       <c r="X25" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="Y25" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -2629,22 +2636,22 @@
         <v>1341</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -2659,7 +2666,7 @@
         <v>22</v>
       </c>
       <c r="Q26" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="T26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2670,10 +2677,10 @@
         <v>20,6 cm</v>
       </c>
       <c r="X26" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="Y26" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -2681,22 +2688,22 @@
         <v>1342</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -2711,7 +2718,7 @@
         <v>22</v>
       </c>
       <c r="Q27" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="T27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2722,10 +2729,10 @@
         <v>21,0 cm</v>
       </c>
       <c r="X27" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="Y27" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -2733,22 +2740,22 @@
         <v>1308</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -2763,7 +2770,7 @@
         <v>22</v>
       </c>
       <c r="Q28" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="T28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2774,10 +2781,10 @@
         <v>4,2 ccm</v>
       </c>
       <c r="X28" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="Y28" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -2785,22 +2792,22 @@
         <v>1309</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K29" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -2815,7 +2822,7 @@
         <v>22</v>
       </c>
       <c r="Q29" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="T29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2826,10 +2833,10 @@
         <v>4,2 ccm</v>
       </c>
       <c r="X29" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="Y29" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -2837,22 +2844,22 @@
         <v>1296</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -2881,10 +2888,10 @@
         <v>2,7 ccm</v>
       </c>
       <c r="X30" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="Y30" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -2892,22 +2899,22 @@
         <v>1307</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K31" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -2922,7 +2929,7 @@
         <v>22</v>
       </c>
       <c r="Q31" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="T31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2933,10 +2940,10 @@
         <v>4,2 ccm</v>
       </c>
       <c r="X31" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="Y31" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -2944,22 +2951,22 @@
         <v>1306</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K32" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -2974,7 +2981,7 @@
         <v>22</v>
       </c>
       <c r="Q32" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="T32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2985,10 +2992,10 @@
         <v>4,6 ccm</v>
       </c>
       <c r="X32" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="Y32" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -2996,22 +3003,22 @@
         <v>1296</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K33" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -3040,10 +3047,10 @@
         <v>2,6 ccm</v>
       </c>
       <c r="X33" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="Y33" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -3051,22 +3058,22 @@
         <v>1532</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H34" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="K34" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -3075,7 +3082,7 @@
         <v>17</v>
       </c>
       <c r="N34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O34" t="s">
         <v>22</v>
@@ -3095,10 +3102,10 @@
         <v>8,2 ccm</v>
       </c>
       <c r="X34" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="Y34" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -3106,22 +3113,22 @@
         <v>1531</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H35" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="K35" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -3130,7 +3137,7 @@
         <v>17</v>
       </c>
       <c r="N35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O35" t="s">
         <v>22</v>
@@ -3150,10 +3157,10 @@
         <v>4,1 ccm</v>
       </c>
       <c r="X35" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="Y35" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -3161,22 +3168,22 @@
         <v>1533</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="K36" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -3185,7 +3192,7 @@
         <v>17</v>
       </c>
       <c r="N36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O36" t="s">
         <v>22</v>
@@ -3205,10 +3212,10 @@
         <v>5,5 ccm</v>
       </c>
       <c r="X36" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="Y36" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -3216,22 +3223,22 @@
         <v>1525</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H37" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -3240,7 +3247,7 @@
         <v>17</v>
       </c>
       <c r="N37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O37" t="s">
         <v>21</v>
@@ -3260,10 +3267,10 @@
         <v>9,4 ccm</v>
       </c>
       <c r="X37" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Y37" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -3271,22 +3278,22 @@
         <v>1530</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H38" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="K38" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -3295,7 +3302,7 @@
         <v>17</v>
       </c>
       <c r="N38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O38" t="s">
         <v>18</v>
@@ -3315,10 +3322,10 @@
         <v>12,2 cm</v>
       </c>
       <c r="X38" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="Y38" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -3326,22 +3333,22 @@
         <v>1534</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H39" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -3350,7 +3357,7 @@
         <v>17</v>
       </c>
       <c r="N39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O39" t="s">
         <v>18</v>
@@ -3370,13 +3377,13 @@
         <v>5,6 xcm</v>
       </c>
       <c r="V39" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="X39" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="Y39" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -3384,22 +3391,22 @@
         <v>1535</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="K40" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -3428,10 +3435,10 @@
         <v>11,7 cm</v>
       </c>
       <c r="X40" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="Y40" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -3439,22 +3446,22 @@
         <v>1540</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="K41" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -3463,7 +3470,7 @@
         <v>17</v>
       </c>
       <c r="N41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O41" t="s">
         <v>18</v>
@@ -3483,10 +3490,10 @@
         <v>7,5 ccm</v>
       </c>
       <c r="X41" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="Y41" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -3494,22 +3501,22 @@
         <v>1421</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H42" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="K42" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -3518,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="N42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O42" t="s">
         <v>18</v>
@@ -3538,13 +3545,13 @@
         <v>8,0 xcm</v>
       </c>
       <c r="V42" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="X42" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="Y42" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -3552,25 +3559,25 @@
         <v>1424</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F43" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H43" t="s">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c r="K43" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -3579,7 +3586,7 @@
         <v>17</v>
       </c>
       <c r="N43" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O43" t="s">
         <v>22</v>
@@ -3599,10 +3606,10 @@
         <v>5,9 ccm</v>
       </c>
       <c r="X43" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="Y43" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -3610,25 +3617,25 @@
         <v>1265</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F44" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="H44" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="K44" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3637,7 +3644,7 @@
         <v>17</v>
       </c>
       <c r="N44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O44" t="s">
         <v>22</v>
@@ -3657,13 +3664,13 @@
         <v>27,5 cm</v>
       </c>
       <c r="V44" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="X44" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="Y44" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -3671,22 +3678,22 @@
         <v>3186</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H45" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="K45" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -3695,7 +3702,7 @@
         <v>17</v>
       </c>
       <c r="N45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O45" t="s">
         <v>18</v>
@@ -3715,10 +3722,10 @@
         <v>5,0 ccm</v>
       </c>
       <c r="V45" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="W45" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -3726,22 +3733,22 @@
         <v>1506</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="K46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -3750,7 +3757,7 @@
         <v>17</v>
       </c>
       <c r="N46" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O46" t="s">
         <v>18</v>
@@ -3762,11 +3769,11 @@
         <v>20</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="U46" s="2"/>
       <c r="X46" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
